--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkrog\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkrog\IdeaProjects\cybertek22-cucumber-junit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D96FD76-F97D-4326-BF8B-1CE3EFA9CA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573FD5D2-D0D6-47C0-BBB4-216787E704C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkrog\IdeaProjects\cybertek22-cucumber-junit\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -70,12 +70,22 @@
   </si>
   <si>
     <t>SDET</t>
+  </si>
+  <si>
+    <t>CodingCool</t>
+  </si>
+  <si>
+    <t>CodingHot</t>
+  </si>
+  <si>
+    <t>Donald</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +418,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -419,7 +429,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
